--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl17-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl17-Ackr2.xlsx
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ccl17</t>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4804870000000001</v>
+        <v>0.2468816666666667</v>
       </c>
       <c r="H2">
-        <v>1.441461</v>
+        <v>0.740645</v>
       </c>
       <c r="I2">
-        <v>0.6605824831607631</v>
+        <v>0.6299860588115711</v>
       </c>
       <c r="J2">
-        <v>0.6605824831607631</v>
+        <v>0.6299860588115711</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2627728947806667</v>
+        <v>0.1350167855077778</v>
       </c>
       <c r="R2">
-        <v>2.364956053026</v>
+        <v>1.21515106957</v>
       </c>
       <c r="S2">
-        <v>0.6605824831607631</v>
+        <v>0.6299860588115711</v>
       </c>
       <c r="T2">
-        <v>0.6605824831607631</v>
+        <v>0.6299860588115711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2468816666666667</v>
+        <v>0.1450026666666667</v>
       </c>
       <c r="H3">
-        <v>0.740645</v>
+        <v>0.435008</v>
       </c>
       <c r="I3">
-        <v>0.3394175168392369</v>
+        <v>0.3700139411884289</v>
       </c>
       <c r="J3">
-        <v>0.3394175168392369</v>
+        <v>0.3700139411884289</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1350167855077778</v>
+        <v>0.07930031503644445</v>
       </c>
       <c r="R3">
-        <v>1.21515106957</v>
+        <v>0.7137028353279999</v>
       </c>
       <c r="S3">
-        <v>0.3394175168392369</v>
+        <v>0.3700139411884289</v>
       </c>
       <c r="T3">
-        <v>0.3394175168392369</v>
+        <v>0.3700139411884289</v>
       </c>
     </row>
   </sheetData>
